--- a/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,17</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,48</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,26</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>1,01; 14,24</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 23,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 22,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18,61; 32,51</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,2; 16,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,25; 25,85</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>56,66%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>116,01%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82,95%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>143,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,22%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>2,92; 126,78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>45,62; 211,44</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31,35; 147,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79,54; 220,81</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,98; 123,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,21; 196,74</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 15,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 11,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,32; 19,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,17; 18,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,22; 13,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,44; 24,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 15,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 11,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,8; 20,65</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,88%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,48%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,44; 211,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,04; 150,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,27; 249,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,75; 94,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,14; 68,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,14; 122,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,07; 111,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,06; 79,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,66; 144,23</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,17</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,84; 17,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,96; 13,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,3; 24,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,12; 10,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,63; 11,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,73; 20,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,98; 12,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,03; 11,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,31; 20,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>168,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,95%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,79; 206,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,77; 161,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,17; 287,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,6; 41,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,58; 46,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,29; 84,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,37; 68,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,93; 62,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,99; 116,56</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 8,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,61; 19,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,75; 23,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,13; 17,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,85; 30,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,64; 26,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 11,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,1; 23,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,48; 23,51</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,89%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,25; 68,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,36; 159,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,84; 180,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,62; 94,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,92; 163,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,63; 137,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,51; 71,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>67,46; 140,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,58; 139,91</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,81</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 9,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,19; 6,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 15,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,75; 27,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 13,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 21,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,93; 17,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,34; 7,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,63; 16,77</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,45%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,81; 82,58</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,66; 61,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,83; 146,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,49; 126,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,31; 63,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,37; 108,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,44; 106,01</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,71; 49,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,37; 98,68</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,26</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 11,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 7,48</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,46; 21,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,71; 20,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 8,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,8; 25,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 15,4</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,35; 6,56</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,1; 22,02</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,9%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,77%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,71%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 108,91</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,93; 68,46</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,56; 196,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,09; 96,76</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,03; 40,48</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,73; 119,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,09; 91,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,82; 38,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,46; 136,18</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 7,22</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 5,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,32; 18,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,51; 16,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 5,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,69; 46,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 10,73</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 4,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,85; 37,91</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,79%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,21%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,0%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,4; 57,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,16; 42,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,41; 147,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,98; 88,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,8; 33,37</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,85; 245,19</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,16; 68,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,79; 25,15</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>85,55; 224,94</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; -0,0</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 6,32</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; -0,94</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 6,05</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 10,73</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 8,25</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,68; 2,45</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 7,39</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 2,39</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,55%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,18%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,95%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,67; 0,36</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,45; 39,18</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,6; -5,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,35; 23,87</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,94; 43,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 33,68</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,63; 11,78</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 35,17</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,66; 11,58</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,84</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 5,82</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 6,78</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,5; 12,05</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,47; 12,01</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 9,4</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,42; 23,15</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 8,26</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 7,64</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,05; 17,45</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,97%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,67; 44,85</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,1; 50,77</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,02; 93,19</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,9; 53,08</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,26; 41,64</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,18; 100,15</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,44; 45,23</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,71; 41,64</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,5; 92,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,94</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,17</t>
+          <t>25,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,26</t>
+          <t>20,35</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 9,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 23,04</t>
+          <t>8,13; 22,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 14,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,61; 32,51</t>
+          <t>17,73; 32,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 10,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 25,85</t>
+          <t>14,86; 24,96</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>116,01%</t>
+          <t>112,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>143,16%</t>
+          <t>140,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>133,22%</t>
+          <t>127,5%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 88,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,62; 211,44</t>
+          <t>45,32; 211,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 102,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,54; 220,81</t>
+          <t>77,01; 218,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 77,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,21; 196,74</t>
+          <t>81,04; 189,51</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,31</t>
+          <t>13,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,64</t>
+          <t>18,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,68</t>
+          <t>15,9</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 19,42</t>
+          <t>8,5; 18,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,44; 24,0</t>
+          <t>13,17; 23,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 20,65</t>
+          <t>12,01; 19,99</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>150,23%</t>
+          <t>142,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>82,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>104,48%</t>
+          <t>99,56%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,27; 249,43</t>
+          <t>71,62; 241,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,14; 122,76</t>
+          <t>50,35; 121,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,66; 144,23</t>
+          <t>66,4; 138,43</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,21</t>
+          <t>17,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>15,71</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,3; 24,49</t>
+          <t>11,89; 23,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,73; 20,85</t>
+          <t>7,53; 20,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,31; 20,57</t>
+          <t>10,85; 20,19</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>168,42%</t>
+          <t>164,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,44%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>78,65%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,17; 287,93</t>
+          <t>84,93; 282,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,29; 84,63</t>
+          <t>22,74; 83,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,99; 116,56</t>
+          <t>49,64; 114,37</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,91</t>
+          <t>15,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,93</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,67</t>
+          <t>12,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>11,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>14,44</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,04</t>
+          <t>-1,19; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 23,67</t>
+          <t>8,37; 23,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 17,7</t>
+          <t>11,53; 24,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 26,68</t>
+          <t>-3,68; 22,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 11,62</t>
+          <t>7,11; 16,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,48; 23,51</t>
+          <t>5,16; 20,61</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>31,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>106,73%</t>
+          <t>104,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>87,73%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>61,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>77,1%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 68,4</t>
+          <t>-8,04; 83,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,84; 180,93</t>
+          <t>45,81; 177,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,62; 94,26</t>
+          <t>45,12; 127,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,63; 137,0</t>
+          <t>-8,95; 106,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,51; 71,03</t>
+          <t>34,2; 97,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,58; 139,91</t>
+          <t>28,33; 119,76</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,96</t>
+          <t>12,08</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 15,58</t>
+          <t>1,69; 15,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 21,41</t>
+          <t>6,77; 21,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,63; 16,77</t>
+          <t>6,67; 16,82</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>62,77%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>61,07%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7,83; 146,62</t>
+          <t>7,66; 146,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>20,37; 108,18</t>
+          <t>21,58; 108,13</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>28,37; 98,68</t>
+          <t>29,17; 99,39</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>18,41</t>
+          <t>18,35</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>16,84</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9,46; 21,6</t>
+          <t>9,23; 21,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,8; 25,12</t>
+          <t>10,69; 25,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>12,1; 22,02</t>
+          <t>11,76; 21,72</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>119,65%</t>
+          <t>117,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>74,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>88,07%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>54,56; 196,89</t>
+          <t>53,78; 194,56</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,73; 119,43</t>
+          <t>37,26; 118,75</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>55,46; 136,18</t>
+          <t>53,65; 134,14</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>34,37</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>21,94</t>
+          <t>25,57</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,32; 18,05</t>
+          <t>7,8; 17,78</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,69; 46,4</t>
+          <t>18,56; 56,92</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,85; 37,91</t>
+          <t>15,46; 47,63</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>136,21%</t>
+          <t>164,56%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>125,0%</t>
+          <t>145,68%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>50,41; 147,9</t>
+          <t>49,63; 146,96</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>82,85; 245,19</t>
+          <t>84,69; 304,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>85,55; 224,94</t>
+          <t>84,49; 296,49</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-4,81</t>
+          <t>-7,55</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-3,29</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,72; -0,94</t>
+          <t>-15,58; -3,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 8,25</t>
+          <t>-0,61; 8,43</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 2,39</t>
+          <t>-10,89; 1,17</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-42,64%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,45%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-14,56%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-44,6; -5,21</t>
+          <t>-76,5; -17,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 33,68</t>
+          <t>-1,94; 34,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 11,58</t>
+          <t>-44,84; 5,1</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>13,5</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,05</t>
+          <t>3,38; 11,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,15</t>
+          <t>13,59; 28,76</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,45</t>
+          <t>10,1; 20,27</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>71,15%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>52,02; 93,19</t>
+          <t>25,22; 84,56</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>58,18; 100,15</t>
+          <t>55,99; 122,79</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>61,5; 92,43</t>
+          <t>52,69; 107,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,76</t>
+          <t>-3,26; 8,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 14,24</t>
+          <t>0,75; 14,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,13; 22,92</t>
+          <t>8,35; 23,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 14,92</t>
+          <t>0,53; 15,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 22,46</t>
+          <t>8,42; 22,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,73; 32,04</t>
+          <t>19,01; 32,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 10,26</t>
+          <t>0,29; 9,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 16,44</t>
+          <t>6,36; 16,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,86; 24,96</t>
+          <t>15,13; 25,37</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 88,46</t>
+          <t>-18,48; 85,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 126,78</t>
+          <t>3,59; 135,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,32; 211,78</t>
+          <t>48,04; 221,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 102,27</t>
+          <t>2,98; 101,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,35; 147,75</t>
+          <t>37,82; 147,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>77,01; 218,37</t>
+          <t>83,57; 223,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 77,19</t>
+          <t>1,04; 70,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,98; 123,87</t>
+          <t>34,16; 117,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,04; 189,51</t>
+          <t>80,57; 189,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 15,99</t>
+          <t>6,89; 16,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 11,75</t>
+          <t>3,25; 11,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 18,68</t>
+          <t>8,46; 18,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 18,39</t>
+          <t>6,83; 18,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 13,74</t>
+          <t>2,66; 13,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,7</t>
+          <t>12,87; 23,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,83</t>
+          <t>8,11; 15,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,18</t>
+          <t>4,0; 11,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,01; 19,99</t>
+          <t>11,98; 19,42</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,44; 211,86</t>
+          <t>57,94; 221,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,04; 150,41</t>
+          <t>28,34; 162,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 241,56</t>
+          <t>73,71; 241,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 94,3</t>
+          <t>27,36; 90,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 68,15</t>
+          <t>10,82; 68,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,35; 121,66</t>
+          <t>51,65; 119,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,07; 111,95</t>
+          <t>47,58; 112,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,06; 79,66</t>
+          <t>22,76; 77,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66,4; 138,43</t>
+          <t>67,01; 133,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,84; 17,36</t>
+          <t>5,7; 17,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,96; 13,73</t>
+          <t>3,98; 14,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 23,98</t>
+          <t>12,49; 23,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 10,49</t>
+          <t>-3,84; 10,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 11,84</t>
+          <t>-3,07; 11,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 20,64</t>
+          <t>6,78; 19,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,06</t>
+          <t>2,81; 11,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,17</t>
+          <t>1,7; 11,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 20,19</t>
+          <t>10,95; 20,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>42,79; 206,67</t>
+          <t>41,36; 203,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,77; 161,64</t>
+          <t>28,37; 170,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>84,93; 282,83</t>
+          <t>94,37; 282,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 41,49</t>
+          <t>-11,61; 43,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 46,62</t>
+          <t>-9,13; 46,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 83,72</t>
+          <t>20,13; 79,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,37; 68,16</t>
+          <t>12,76; 66,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,93; 62,11</t>
+          <t>7,42; 63,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,64; 114,37</t>
+          <t>47,61; 114,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 10,39</t>
+          <t>-1,11; 10,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,61; 19,42</t>
+          <t>7,54; 19,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 23,48</t>
+          <t>7,91; 23,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,53; 24,33</t>
+          <t>12,1; 24,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,85; 30,6</t>
+          <t>16,47; 30,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 22,23</t>
+          <t>-2,47; 22,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,11; 16,31</t>
+          <t>7,07; 15,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,1; 23,2</t>
+          <t>13,83; 23,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 20,61</t>
+          <t>5,07; 20,77</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 83,99</t>
+          <t>-6,55; 89,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,36; 159,0</t>
+          <t>42,64; 158,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,81; 177,47</t>
+          <t>44,53; 187,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>45,12; 127,81</t>
+          <t>46,05; 125,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>63,92; 163,04</t>
+          <t>63,7; 157,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 106,64</t>
+          <t>-8,41; 110,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,2; 97,75</t>
+          <t>33,38; 93,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,46; 140,89</t>
+          <t>66,62; 138,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>28,33; 119,76</t>
+          <t>25,25; 118,75</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 9,34</t>
+          <t>-4,71; 9,16</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 6,71</t>
+          <t>-6,71; 6,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,59</t>
+          <t>1,96; 16,44</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,75; 27,72</t>
+          <t>10,51; 28,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 13,24</t>
+          <t>-4,38; 13,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,77; 21,57</t>
+          <t>6,24; 21,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,93; 17,22</t>
+          <t>5,14; 17,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 7,91</t>
+          <t>-3,04; 7,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,67; 16,82</t>
+          <t>6,91; 17,35</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-26,81; 82,58</t>
+          <t>-28,72; 81,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 61,55</t>
+          <t>-39,51; 59,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7,66; 146,42</t>
+          <t>9,44; 153,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>30,49; 126,86</t>
+          <t>33,26; 133,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 63,24</t>
+          <t>-14,48; 64,45</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>21,58; 108,13</t>
+          <t>19,89; 102,75</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>20,44; 106,01</t>
+          <t>21,51; 104,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 49,0</t>
+          <t>-13,7; 48,2</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>29,17; 99,39</t>
+          <t>30,87; 104,68</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 11,83</t>
+          <t>0,27; 12,11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,48</t>
+          <t>-4,23; 8,15</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>9,23; 21,38</t>
+          <t>9,52; 21,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,71; 20,62</t>
+          <t>5,52; 20,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 8,14</t>
+          <t>-6,89; 7,94</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>10,69; 25,02</t>
+          <t>10,73; 25,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,78; 15,4</t>
+          <t>4,46; 14,71</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,56</t>
+          <t>-3,75; 5,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,76; 21,72</t>
+          <t>11,92; 21,08</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 108,91</t>
+          <t>1,28; 113,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 68,46</t>
+          <t>-27,44; 71,84</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>53,78; 194,56</t>
+          <t>53,91; 202,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>20,09; 96,76</t>
+          <t>19,03; 102,79</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 40,48</t>
+          <t>-24,03; 37,46</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>37,26; 118,75</t>
+          <t>36,43; 126,28</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>22,09; 91,08</t>
+          <t>20,78; 87,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 38,94</t>
+          <t>-17,85; 33,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,65; 134,14</t>
+          <t>55,35; 128,27</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 7,22</t>
+          <t>-1,68; 7,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 5,17</t>
+          <t>-3,13; 5,26</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,8; 17,78</t>
+          <t>7,64; 17,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,51; 16,47</t>
+          <t>6,47; 16,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,94</t>
+          <t>-3,48; 5,84</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,56; 56,92</t>
+          <t>18,5; 54,72</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,73</t>
+          <t>3,9; 10,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,04</t>
+          <t>-1,94; 4,25</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,46; 47,63</t>
+          <t>15,33; 48,96</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 57,35</t>
+          <t>-11,04; 55,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,16; 42,95</t>
+          <t>-18,72; 45,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>49,63; 146,96</t>
+          <t>46,26; 142,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>27,98; 88,18</t>
+          <t>28,1; 89,56</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 33,37</t>
+          <t>-15,94; 31,42</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>84,69; 304,78</t>
+          <t>85,69; 284,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>21,16; 68,79</t>
+          <t>20,34; 65,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 25,15</t>
+          <t>-10,16; 26,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>84,49; 296,49</t>
+          <t>83,99; 299,86</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,0</t>
+          <t>-7,47; 0,32</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 6,32</t>
+          <t>-1,43; 6,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-15,58; -3,1</t>
+          <t>-13,66; -2,45</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 6,05</t>
+          <t>-2,83; 6,6</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,73</t>
+          <t>1,13; 10,45</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 8,43</t>
+          <t>-0,67; 8,15</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,45</t>
+          <t>-4,02; 2,02</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,39</t>
+          <t>1,14; 7,4</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 1,17</t>
+          <t>-11,27; 0,99</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 0,36</t>
+          <t>-37,74; 2,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 39,18</t>
+          <t>-7,5; 38,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-76,5; -17,86</t>
+          <t>-75,12; -15,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 23,87</t>
+          <t>-9,63; 26,81</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,94; 43,0</t>
+          <t>3,82; 42,42</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 34,77</t>
+          <t>-2,22; 33,36</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 11,78</t>
+          <t>-16,23; 9,73</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>3,08; 35,17</t>
+          <t>4,74; 35,66</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 5,1</t>
+          <t>-46,95; 4,52</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,82</t>
+          <t>2,17; 5,74</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,78</t>
+          <t>3,19; 6,7</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,31</t>
+          <t>3,74; 11,11</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,01</t>
+          <t>7,53; 11,72</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,4</t>
+          <t>5,0; 9,19</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>13,59; 28,76</t>
+          <t>13,82; 29,23</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,26</t>
+          <t>5,25; 8,21</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,64</t>
+          <t>4,78; 7,63</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>10,1; 20,27</t>
+          <t>10,07; 20,12</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,67; 44,85</t>
+          <t>14,09; 43,93</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>22,1; 50,77</t>
+          <t>21,14; 50,37</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,22; 84,56</t>
+          <t>27,65; 84,54</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>29,9; 53,08</t>
+          <t>30,33; 50,89</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>20,26; 41,64</t>
+          <t>20,12; 40,06</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>55,99; 122,79</t>
+          <t>56,71; 123,79</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>27,44; 45,23</t>
+          <t>26,83; 45,22</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>23,71; 41,64</t>
+          <t>24,07; 41,73</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>52,69; 107,17</t>
+          <t>52,09; 105,95</t>
         </is>
       </c>
     </row>
